--- a/controllers/spreadSheets/Vendor Sourcing Info.xlsx
+++ b/controllers/spreadSheets/Vendor Sourcing Info.xlsx
@@ -26302,8 +26302,9 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{AA27BC6C-25D7-F74C-A148-3B730C9F0C11}" name="mat i" id="-1013961011" dateTime="2019-03-29T16:32:06"/>
+  <userInfo guid="{20DC40FD-AD69-654F-BD68-7426E3172617}" name="mat i" id="-1013938678" dateTime="2019-04-01T10:27:41"/>
 </users>
 </file>
 
